--- a/Techgig_Virtual_Priority_Ticket_Sentiment/Data/Config.xlsx
+++ b/Techgig_Virtual_Priority_Ticket_Sentiment/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>https://outlook.office365.com/ews/exchange.asmx</t>
-  </si>
-  <si>
-    <t>https://mail.nhs.net/ews/exchange.asmx/</t>
   </si>
   <si>
     <t>ExchangeCredential</t>
@@ -487,7 +484,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -537,7 +534,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -545,10 +542,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
